--- a/console/Networking/agExcel/components/autoScaling/timeComponents/addTime.xlsx
+++ b/console/Networking/agExcel/components/autoScaling/timeComponents/addTime.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lulu8/Documents/帮助文档/en/console/Networking/agExcel/components/autoScaling/timeComponents/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11CBDD1-93C9-E143-B649-C93BD213CBF2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="10740"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24240" windowHeight="15140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
@@ -403,9 +409,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>The name contains 2-32 characters and supports Chinese, English, numbers, underlines and delimiters</t>
-  </si>
-  <si>
     <t>Decimal Point</t>
   </si>
   <si>
@@ -430,16 +433,10 @@
     <t xml:space="preserve">to </t>
   </si>
   <si>
-    <t>Repeat end time</t>
-  </si>
-  <si>
     <t>Scaling Rule</t>
   </si>
   <si>
     <t>Integer</t>
-  </si>
-  <si>
-    <t>XX Virtual Machine(s)</t>
   </si>
   <si>
     <t>Execute once</t>
@@ -447,14 +444,26 @@
   </si>
   <si>
     <t>every day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The name can be 2-32 characters in length and supports Chinese, English, numbers, underlines and delimiters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Repeat end time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XX VM(s)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -843,22 +852,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="24.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="59.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="59.33203125" style="2" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -869,7 +878,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="38">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -877,10 +886,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="19">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -888,10 +897,10 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="19">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -899,10 +908,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="19">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -910,10 +919,10 @@
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="19">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -921,10 +930,10 @@
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="19">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -932,10 +941,10 @@
         <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="19">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -943,10 +952,10 @@
         <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="19">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -954,10 +963,10 @@
         <v>17</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="19">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -965,10 +974,10 @@
         <v>19</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="19">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -976,10 +985,10 @@
         <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="19">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -987,10 +996,10 @@
         <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="19">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -998,10 +1007,10 @@
         <v>25</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="19">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -1009,10 +1018,10 @@
         <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="19">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -1020,10 +1029,10 @@
         <v>29</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="19">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -1031,7 +1040,7 @@
         <v>31</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
